--- a/calulator.xlsx
+++ b/calulator.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12555"/>
   </bookViews>
   <sheets>
-    <sheet name="svg" sheetId="1" r:id="rId1"/>
+    <sheet name="pentagon" sheetId="1" r:id="rId1"/>
+    <sheet name="triangle" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>画布</t>
     <phoneticPr fontId="1"/>
@@ -32,54 +33,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>X坐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>标</t>
-    </r>
+    <t>最大</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>Y坐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>标</t>
-    </r>
+    <t>实际</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>坐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>标</t>
-    </r>
+    <t>X坐标</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y坐标</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坐标</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -87,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,28 +74,112 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -134,11 +188,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,176 +507,1064 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="8" width="10" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
+        <v>512</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f>ROUND(250*D2/C2,3)</f>
+        <v>250</v>
+      </c>
+      <c r="F2" s="5">
+        <f>90+B2*72</f>
+        <v>90</v>
+      </c>
+      <c r="G2" s="5">
+        <f>ROUND(COS(RADIANS(F2))*E2+A2/2,3)</f>
+        <v>256</v>
+      </c>
+      <c r="H2" s="5">
+        <f>ROUND(A2/2-SIN(RADIANS(F2))*E2,3)</f>
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>G2&amp;","&amp;H2</f>
+        <v>256,6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>512</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E31" si="0">ROUND(250*D3/C3,3)</f>
+        <v>250</v>
+      </c>
+      <c r="F3" s="5">
+        <f>90+B3*72</f>
+        <v>162</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G31" si="1">ROUND(COS(RADIANS(F3))*E3+A3/2,3)</f>
+        <v>18.236000000000001</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H31" si="2">ROUND(A3/2-SIN(RADIANS(F3))*E3,3)</f>
+        <v>178.74600000000001</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:I31" si="3">G3&amp;","&amp;H3</f>
+        <v>18.236,178.746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>512</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="F4" s="5">
+        <f>90+B4*72</f>
+        <v>234</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>109.054</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="2"/>
+        <v>458.25400000000002</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>109.054,458.254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>512</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="F5" s="5">
+        <f>90+B5*72</f>
+        <v>306</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>402.94600000000003</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>458.25400000000002</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>402.946,458.254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <v>512</v>
+      </c>
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="F6" s="5">
+        <f>90+B6*72</f>
+        <v>378</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>493.76400000000001</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>178.74600000000001</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>493.764,178.746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>512</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F31" si="4">90+B7*72</f>
+        <v>90</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>256,56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>512</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>65.789000000000001</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>194.197</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>65.789,194.197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>512</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>138.44300000000001</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>417.803</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>138.443,417.803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
+        <v>512</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>373.55700000000002</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>417.803</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>373.557,417.803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5">
+        <v>512</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>446.21100000000001</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>194.197</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>446.211,194.197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5">
+        <v>512</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>256,106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5">
+        <v>512</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>113.342</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="2"/>
+        <v>209.64699999999999</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>113.342,209.647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5">
+        <v>512</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="1"/>
+        <v>167.83199999999999</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="2"/>
+        <v>377.35300000000001</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>167.832,377.353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5">
+        <v>512</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="1"/>
+        <v>344.16800000000001</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="2"/>
+        <v>377.35300000000001</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>344.168,377.353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>512</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>398.65800000000002</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>209.64699999999999</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>398.658,209.647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5">
+        <v>512</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>256,156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5">
+        <v>512</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="1"/>
+        <v>160.89400000000001</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>225.09800000000001</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>160.894,225.098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5">
+        <v>512</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="1"/>
+        <v>197.221</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>336.90199999999999</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>197.221,336.902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5">
+        <v>512</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>314.779</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>336.90199999999999</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>314.779,336.902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>512</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="1"/>
+        <v>351.10599999999999</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>225.09800000000001</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>351.106,225.098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5">
+        <v>512</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>256,206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5">
+        <v>512</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="1"/>
+        <v>208.447</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="2"/>
+        <v>240.54900000000001</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>208.447,240.549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5">
+        <v>512</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="1"/>
+        <v>226.61099999999999</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="2"/>
+        <v>296.45100000000002</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>226.611,296.451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5">
+        <v>512</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="1"/>
+        <v>285.38900000000001</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="2"/>
+        <v>296.45100000000002</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>285.389,296.451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5">
+        <v>512</v>
+      </c>
+      <c r="B26" s="5">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="1"/>
+        <v>303.553</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="2"/>
+        <v>240.54900000000001</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>303.553,240.549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6">
+        <v>512</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>512</v>
-      </c>
-      <c r="B2" s="1">
-        <v>250</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <f>90+C2*72</f>
-        <v>90</v>
-      </c>
-      <c r="E2" s="1">
-        <f>ROUND(COS(RADIANS(D2))*B2+A2/2,3)</f>
-        <v>256</v>
-      </c>
-      <c r="F2" s="1">
-        <f>ROUND(A2/2-SIN(RADIANS(D2))*B2,3)</f>
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f>E2&amp;","&amp;F2</f>
+      <c r="I27" s="6" t="str">
+        <f t="shared" si="3"/>
         <v>256,6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>512</v>
-      </c>
-      <c r="B3" s="1">
-        <v>250</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <f>90+C3*72</f>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6">
+        <v>512</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="D28" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>105.76900000000001</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E6" si="0">ROUND(COS(RADIANS(D3))*B3+A3/2,3)</f>
-        <v>18.236000000000001</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F6" si="1">ROUND(A3/2-SIN(RADIANS(D3))*B3,3)</f>
-        <v>178.74600000000001</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G6" si="2">E3&amp;","&amp;F3</f>
-        <v>18.236,178.746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>512</v>
-      </c>
-      <c r="B4" s="1">
-        <v>250</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="G28" s="6">
+        <f t="shared" si="1"/>
+        <v>155.40799999999999</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="2"/>
+        <v>223.316</v>
+      </c>
+      <c r="I28" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>155.408,223.316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6">
+        <v>512</v>
+      </c>
+      <c r="B29" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <f>90+C4*72</f>
+      <c r="C29" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="D29" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>175.23400000000001</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="4"/>
         <v>234</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>109.054</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="1"/>
-        <v>458.25400000000002</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>109.054,458.254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>512</v>
-      </c>
-      <c r="B5" s="1">
-        <v>250</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="G29" s="6">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="2"/>
+        <v>397.767</v>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>153,397.767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6">
+        <v>512</v>
+      </c>
+      <c r="B30" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <f>90+C5*72</f>
+      <c r="C30" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>227.273</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>402.94600000000003</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>458.25400000000002</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>402.946,458.254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>512</v>
-      </c>
-      <c r="B6" s="1">
-        <v>250</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="G30" s="6">
+        <f t="shared" si="1"/>
+        <v>389.58800000000002</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="2"/>
+        <v>439.86799999999999</v>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>389.588,439.868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6">
+        <v>512</v>
+      </c>
+      <c r="B31" s="6">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
-        <f>90+C6*72</f>
+      <c r="C31" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>64.814999999999998</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="4"/>
         <v>378</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>493.76400000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>178.74600000000001</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>493.764,178.746</v>
+      <c r="G31" s="6">
+        <f t="shared" si="1"/>
+        <v>317.64299999999997</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="2"/>
+        <v>235.971</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>317.643,235.971</v>
       </c>
     </row>
   </sheetData>
@@ -612,4 +1572,460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="8" width="10" style="7" customWidth="1"/>
+    <col min="9" max="9" width="20" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
+        <v>512</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f>ROUND(250*D2/C2,3)</f>
+        <v>250</v>
+      </c>
+      <c r="F2" s="5">
+        <f>90+B2*120</f>
+        <v>90</v>
+      </c>
+      <c r="G2" s="5">
+        <f>ROUND(COS(RADIANS(F2))*E2+A2/2,3)</f>
+        <v>256</v>
+      </c>
+      <c r="H2" s="5">
+        <f>ROUND(A2/2-SIN(RADIANS(F2))*E2,3)</f>
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>G2&amp;","&amp;H2</f>
+        <v>256,6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>512</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E10" si="0">ROUND(250*D3/C3,3)</f>
+        <v>250</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F10" si="1">90+B3*120</f>
+        <v>210</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G10" si="2">ROUND(COS(RADIANS(F3))*E3+A3/2,3)</f>
+        <v>39.494</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H10" si="3">ROUND(A3/2-SIN(RADIANS(F3))*E3,3)</f>
+        <v>381</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:I10" si="4">G3&amp;","&amp;H3</f>
+        <v>39.494,381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>512</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="2"/>
+        <v>472.50599999999997</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="3"/>
+        <v>381</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>472.506,381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>512</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>166.5</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="3"/>
+        <v>89.5</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>256,89.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <v>512</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>166.5</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="2"/>
+        <v>111.807</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="3"/>
+        <v>339.25</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>111.807,339.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>512</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>166.5</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="2"/>
+        <v>400.19299999999998</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="3"/>
+        <v>339.25</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>400.193,339.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>512</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>83.25</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="3"/>
+        <v>172.75</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>256,172.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>512</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>83.25</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="2"/>
+        <v>183.90299999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="3"/>
+        <v>297.625</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>183.903,297.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
+        <v>512</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>83.25</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
+        <v>328.09699999999998</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="3"/>
+        <v>297.625</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>328.097,297.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6">
+        <v>512</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44.2</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" ref="E11:E13" si="5">ROUND(250*D11/C11,3)</f>
+        <v>165.172</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" ref="F11:F13" si="6">90+B11*120</f>
+        <v>90</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" ref="G11:G13" si="7">ROUND(COS(RADIANS(F11))*E11+A11/2,3)</f>
+        <v>256</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" ref="H11:H13" si="8">ROUND(A11/2-SIN(RADIANS(F11))*E11,3)</f>
+        <v>90.828000000000003</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f t="shared" ref="I11:I13" si="9">G11&amp;","&amp;H11</f>
+        <v>256,90.828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6">
+        <v>512</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>47.4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="5"/>
+        <v>194.09299999999999</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="7"/>
+        <v>87.911000000000001</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="8"/>
+        <v>353.04700000000003</v>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>87.911,353.047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6">
+        <v>512</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>92.8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>88</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="5"/>
+        <v>237.06899999999999</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="7"/>
+        <v>461.30799999999999</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="8"/>
+        <v>374.53500000000003</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>461.308,374.535</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/calulator.xlsx
+++ b/calulator.xlsx
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,7 +518,7 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,9 +547,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -561,29 +561,28 @@
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <f>ROUND(250*D2/C2,3)</f>
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5">
         <f>90+B2*72</f>
         <v>90</v>
       </c>
       <c r="G2" s="5">
-        <f>ROUND(COS(RADIANS(F2))*E2+A2/2,3)</f>
-        <v>256</v>
+        <f>ROUND(COS(RADIANS(F2))*(E2*D2/C2)+A2/2,3)</f>
+        <v>62.5</v>
       </c>
       <c r="H2" s="5">
-        <f>ROUND(A2/2-SIN(RADIANS(F2))*E2,3)</f>
-        <v>6</v>
+        <f>ROUND(A2/2-SIN(RADIANS(F2))*(E2*D2/C2),3)</f>
+        <v>12.5</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>G2&amp;","&amp;H2</f>
-        <v>256,6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>62.5,12.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -595,29 +594,28 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E31" si="0">ROUND(250*D3/C3,3)</f>
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F3" s="5">
         <f>90+B3*72</f>
         <v>162</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G31" si="1">ROUND(COS(RADIANS(F3))*E3+A3/2,3)</f>
-        <v>18.236000000000001</v>
+        <f t="shared" ref="G3:G31" si="0">ROUND(COS(RADIANS(F3))*(E3*D3/C3)+A3/2,3)</f>
+        <v>14.946999999999999</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H31" si="2">ROUND(A3/2-SIN(RADIANS(F3))*E3,3)</f>
-        <v>178.74600000000001</v>
+        <f t="shared" ref="H3:H31" si="1">ROUND(A3/2-SIN(RADIANS(F3))*(E3*D3/C3),3)</f>
+        <v>47.048999999999999</v>
       </c>
       <c r="I3" s="5" t="str">
-        <f t="shared" ref="I3:I31" si="3">G3&amp;","&amp;H3</f>
-        <v>18.236,178.746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <f t="shared" ref="I3:I31" si="2">G3&amp;","&amp;H3</f>
+        <v>14.947,47.049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
@@ -629,29 +627,28 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F4" s="5">
         <f>90+B4*72</f>
         <v>234</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="1"/>
-        <v>109.054</v>
+        <f t="shared" si="0"/>
+        <v>33.110999999999997</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="2"/>
-        <v>458.25400000000002</v>
+        <f t="shared" si="1"/>
+        <v>102.95099999999999</v>
       </c>
       <c r="I4" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>109.054,458.254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>33.111,102.951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -663,29 +660,28 @@
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5">
         <f>90+B5*72</f>
         <v>306</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="1"/>
-        <v>402.94600000000003</v>
+        <f t="shared" si="0"/>
+        <v>91.888999999999996</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="2"/>
-        <v>458.25400000000002</v>
+        <f t="shared" si="1"/>
+        <v>102.95099999999999</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>402.946,458.254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>91.889,102.951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
@@ -697,29 +693,32 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F6" s="5">
         <f>90+B6*72</f>
         <v>378</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="1"/>
-        <v>493.76400000000001</v>
+        <f t="shared" si="0"/>
+        <v>110.053</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="2"/>
-        <v>178.74600000000001</v>
+        <f t="shared" si="1"/>
+        <v>47.048999999999999</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>493.764,178.746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>110.053,47.049</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f>I2&amp;" "&amp;I3&amp;" "&amp;I4&amp;" "&amp;I5&amp;" "&amp;I6</f>
+        <v>62.5,12.5 14.947,47.049 33.111,102.951 91.889,102.951 110.053,47.049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -731,29 +730,28 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F31" si="4">90+B7*72</f>
+        <f t="shared" ref="F7:F31" si="3">90+B7*72</f>
         <v>90</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="1"/>
-        <v>256</v>
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>22.5</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>256,56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>62.5,22.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -765,29 +763,28 @@
         <v>0.8</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="1"/>
-        <v>65.789000000000001</v>
+        <f t="shared" si="0"/>
+        <v>24.457999999999998</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="2"/>
-        <v>194.197</v>
+        <f t="shared" si="1"/>
+        <v>50.139000000000003</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>65.789,194.197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>24.458,50.139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
@@ -799,29 +796,28 @@
         <v>0.8</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="1"/>
-        <v>138.44300000000001</v>
+        <f t="shared" si="0"/>
+        <v>38.988999999999997</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="2"/>
-        <v>417.803</v>
+        <f t="shared" si="1"/>
+        <v>94.861000000000004</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>138.443,417.803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>38.989,94.861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
@@ -833,29 +829,28 @@
         <v>0.8</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>306</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="1"/>
-        <v>373.55700000000002</v>
+        <f t="shared" si="0"/>
+        <v>86.010999999999996</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="2"/>
-        <v>417.803</v>
+        <f t="shared" si="1"/>
+        <v>94.861000000000004</v>
       </c>
       <c r="I10" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>373.557,417.803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>86.011,94.861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
@@ -867,29 +862,32 @@
         <v>0.8</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>378</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="1"/>
-        <v>446.21100000000001</v>
+        <f t="shared" si="0"/>
+        <v>100.542</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="2"/>
-        <v>194.197</v>
+        <f t="shared" si="1"/>
+        <v>50.139000000000003</v>
       </c>
       <c r="I11" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>446.211,194.197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>100.542,50.139</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" ref="J11" si="4">I7&amp;" "&amp;I8&amp;" "&amp;I9&amp;" "&amp;I10&amp;" "&amp;I11</f>
+        <v>62.5,22.5 24.458,50.139 38.989,94.861 86.011,94.861 100.542,50.139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -901,29 +899,28 @@
         <v>0.6</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="1"/>
-        <v>256</v>
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="2"/>
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>32.5</v>
       </c>
       <c r="I12" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>256,106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>62.5,32.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -935,29 +932,28 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="1"/>
-        <v>113.342</v>
+        <f t="shared" si="0"/>
+        <v>33.968000000000004</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="2"/>
-        <v>209.64699999999999</v>
+        <f t="shared" si="1"/>
+        <v>53.228999999999999</v>
       </c>
       <c r="I13" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>113.342,209.647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>33.968,53.229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -969,29 +965,28 @@
         <v>0.6</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="1"/>
-        <v>167.83199999999999</v>
+        <f t="shared" si="0"/>
+        <v>44.866</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="2"/>
-        <v>377.35300000000001</v>
+        <f t="shared" si="1"/>
+        <v>86.771000000000001</v>
       </c>
       <c r="I14" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>167.832,377.353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>44.866,86.771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B15" s="5">
         <v>3</v>
@@ -1003,29 +998,28 @@
         <v>0.6</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>306</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="1"/>
-        <v>344.16800000000001</v>
+        <f t="shared" si="0"/>
+        <v>80.134</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="2"/>
-        <v>377.35300000000001</v>
+        <f t="shared" si="1"/>
+        <v>86.771000000000001</v>
       </c>
       <c r="I15" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>344.168,377.353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>80.134,86.771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B16" s="5">
         <v>4</v>
@@ -1037,29 +1031,32 @@
         <v>0.6</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>378</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="1"/>
-        <v>398.65800000000002</v>
+        <f t="shared" si="0"/>
+        <v>91.031999999999996</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="2"/>
-        <v>209.64699999999999</v>
+        <f t="shared" si="1"/>
+        <v>53.228999999999999</v>
       </c>
       <c r="I16" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>398.658,209.647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>91.032,53.229</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" ref="J16" si="5">I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15&amp;" "&amp;I16</f>
+        <v>62.5,32.5 33.968,53.229 44.866,86.771 80.134,86.771 91.032,53.229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
@@ -1071,29 +1068,28 @@
         <v>0.4</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="1"/>
-        <v>256</v>
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="2"/>
-        <v>156</v>
+        <f t="shared" si="1"/>
+        <v>42.5</v>
       </c>
       <c r="I17" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>256,156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>62.5,42.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
@@ -1105,29 +1101,28 @@
         <v>0.4</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="1"/>
-        <v>160.89400000000001</v>
+        <f t="shared" si="0"/>
+        <v>43.478999999999999</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="2"/>
-        <v>225.09800000000001</v>
+        <f t="shared" si="1"/>
+        <v>56.32</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>160.894,225.098</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>43.479,56.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
@@ -1139,29 +1134,28 @@
         <v>0.4</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="1"/>
-        <v>197.221</v>
+        <f t="shared" si="0"/>
+        <v>50.744</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="2"/>
-        <v>336.90199999999999</v>
+        <f t="shared" si="1"/>
+        <v>78.680000000000007</v>
       </c>
       <c r="I19" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>197.221,336.902</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>50.744,78.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -1173,29 +1167,28 @@
         <v>0.4</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>306</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="1"/>
-        <v>314.779</v>
+        <f t="shared" si="0"/>
+        <v>74.256</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="2"/>
-        <v>336.90199999999999</v>
+        <f t="shared" si="1"/>
+        <v>78.680000000000007</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>314.779,336.902</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>74.256,78.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B21" s="5">
         <v>4</v>
@@ -1207,29 +1200,32 @@
         <v>0.4</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>378</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" si="1"/>
-        <v>351.10599999999999</v>
+        <f t="shared" si="0"/>
+        <v>81.521000000000001</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="2"/>
-        <v>225.09800000000001</v>
+        <f t="shared" si="1"/>
+        <v>56.32</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>351.106,225.098</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>81.521,56.32</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f t="shared" ref="J21" si="6">I17&amp;" "&amp;I18&amp;" "&amp;I19&amp;" "&amp;I20&amp;" "&amp;I21</f>
+        <v>62.5,42.5 43.479,56.32 50.744,78.68 74.256,78.68 81.521,56.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
@@ -1241,29 +1237,28 @@
         <v>0.2</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="1"/>
-        <v>256</v>
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="2"/>
-        <v>206</v>
+        <f t="shared" si="1"/>
+        <v>52.5</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>256,206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>62.5,52.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -1275,29 +1270,28 @@
         <v>0.2</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="1"/>
-        <v>208.447</v>
+        <f t="shared" si="0"/>
+        <v>52.988999999999997</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="2"/>
-        <v>240.54900000000001</v>
+        <f t="shared" si="1"/>
+        <v>59.41</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>208.447,240.549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>52.989,59.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -1309,29 +1303,28 @@
         <v>0.2</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="1"/>
-        <v>226.61099999999999</v>
+        <f t="shared" si="0"/>
+        <v>56.622</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="2"/>
-        <v>296.45100000000002</v>
+        <f t="shared" si="1"/>
+        <v>70.59</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>226.611,296.451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>56.622,70.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B25" s="5">
         <v>3</v>
@@ -1343,29 +1336,28 @@
         <v>0.2</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>306</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="1"/>
-        <v>285.38900000000001</v>
+        <f t="shared" si="0"/>
+        <v>68.378</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="2"/>
-        <v>296.45100000000002</v>
+        <f t="shared" si="1"/>
+        <v>70.59</v>
       </c>
       <c r="I25" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>285.389,296.451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>68.378,70.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="5">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B26" s="5">
         <v>4</v>
@@ -1377,29 +1369,32 @@
         <v>0.2</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>378</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="1"/>
-        <v>303.553</v>
+        <f t="shared" si="0"/>
+        <v>72.010999999999996</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="2"/>
-        <v>240.54900000000001</v>
+        <f t="shared" si="1"/>
+        <v>59.41</v>
       </c>
       <c r="I26" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>303.553,240.549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>72.011,59.41</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f t="shared" ref="J26" si="7">I22&amp;" "&amp;I23&amp;" "&amp;I24&amp;" "&amp;I25&amp;" "&amp;I26</f>
+        <v>62.5,52.5 52.989,59.41 56.622,70.59 68.378,70.59 72.011,59.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="6">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -1411,29 +1406,28 @@
         <v>36.1</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="1"/>
-        <v>256</v>
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>12.5</v>
       </c>
       <c r="I27" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>256,6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>62.5,12.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="6">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -1445,29 +1439,28 @@
         <v>6.6</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="0"/>
-        <v>105.76900000000001</v>
+        <v>50</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="1"/>
-        <v>155.40799999999999</v>
+        <f t="shared" si="0"/>
+        <v>42.381</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="2"/>
-        <v>223.316</v>
+        <f t="shared" si="1"/>
+        <v>55.963000000000001</v>
       </c>
       <c r="I28" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>155.408,223.316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>42.381,55.963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="6">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B29" s="6">
         <v>2</v>
@@ -1479,29 +1472,28 @@
         <v>7.5</v>
       </c>
       <c r="E29" s="6">
-        <f t="shared" si="0"/>
-        <v>175.23400000000001</v>
+        <v>50</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="1"/>
-        <v>153</v>
+        <f t="shared" si="0"/>
+        <v>41.9</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="2"/>
-        <v>397.767</v>
+        <f t="shared" si="1"/>
+        <v>90.852999999999994</v>
       </c>
       <c r="I29" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>153,397.767</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>41.9,90.853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="6">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B30" s="6">
         <v>3</v>
@@ -1513,29 +1505,28 @@
         <v>2</v>
       </c>
       <c r="E30" s="6">
-        <f t="shared" si="0"/>
-        <v>227.273</v>
+        <v>50</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>306</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="1"/>
-        <v>389.58800000000002</v>
+        <f t="shared" si="0"/>
+        <v>89.218000000000004</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="2"/>
-        <v>439.86799999999999</v>
+        <f t="shared" si="1"/>
+        <v>99.272999999999996</v>
       </c>
       <c r="I30" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>389.588,439.868</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <f t="shared" si="2"/>
+        <v>89.218,99.273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="6">
-        <v>512</v>
+        <v>125</v>
       </c>
       <c r="B31" s="6">
         <v>4</v>
@@ -1547,24 +1538,27 @@
         <v>0.7</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" si="0"/>
-        <v>64.814999999999998</v>
+        <v>50</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>378</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="1"/>
-        <v>317.64299999999997</v>
+        <f t="shared" si="0"/>
+        <v>74.828999999999994</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="2"/>
-        <v>235.971</v>
+        <f t="shared" si="1"/>
+        <v>58.494</v>
       </c>
       <c r="I31" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>317.643,235.971</v>
+        <f t="shared" si="2"/>
+        <v>74.829,58.494</v>
+      </c>
+      <c r="J31" s="4" t="str">
+        <f t="shared" ref="J31" si="8">I27&amp;" "&amp;I28&amp;" "&amp;I29&amp;" "&amp;I30&amp;" "&amp;I31</f>
+        <v>62.5,12.5 42.381,55.963 41.9,90.853 89.218,99.273 74.829,58.494</v>
       </c>
     </row>
   </sheetData>

--- a/calulator.xlsx
+++ b/calulator.xlsx
@@ -507,9 +507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -549,7 +551,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -561,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F2" s="5">
         <f>90+B2*72</f>
@@ -569,20 +571,20 @@
       </c>
       <c r="G2" s="5">
         <f>ROUND(COS(RADIANS(F2))*(E2*D2/C2)+A2/2,3)</f>
-        <v>62.5</v>
+        <v>187.5</v>
       </c>
       <c r="H2" s="5">
         <f>ROUND(A2/2-SIN(RADIANS(F2))*(E2*D2/C2),3)</f>
-        <v>12.5</v>
+        <v>47.5</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>G2&amp;","&amp;H2</f>
-        <v>62.5,12.5</v>
+        <v>187.5,47.5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -594,28 +596,28 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F3" s="5">
         <f>90+B3*72</f>
         <v>162</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G31" si="0">ROUND(COS(RADIANS(F3))*(E3*D3/C3)+A3/2,3)</f>
-        <v>14.946999999999999</v>
+        <f t="shared" ref="G3:G36" si="0">ROUND(COS(RADIANS(F3))*(E3*D3/C3)+A3/2,3)</f>
+        <v>54.351999999999997</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H31" si="1">ROUND(A3/2-SIN(RADIANS(F3))*(E3*D3/C3),3)</f>
-        <v>47.048999999999999</v>
+        <f t="shared" ref="H3:H36" si="1">ROUND(A3/2-SIN(RADIANS(F3))*(E3*D3/C3),3)</f>
+        <v>144.238</v>
       </c>
       <c r="I3" s="5" t="str">
-        <f t="shared" ref="I3:I31" si="2">G3&amp;","&amp;H3</f>
-        <v>14.947,47.049</v>
+        <f t="shared" ref="I3:I36" si="2">G3&amp;","&amp;H3</f>
+        <v>54.352,144.238</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
@@ -627,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F4" s="5">
         <f>90+B4*72</f>
@@ -635,20 +637,20 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>33.110999999999997</v>
+        <v>105.21</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>102.95099999999999</v>
+        <v>300.762</v>
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>33.111,102.951</v>
+        <v>105.21,300.762</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -660,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F5" s="5">
         <f>90+B5*72</f>
@@ -668,20 +670,20 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>91.888999999999996</v>
+        <v>269.79000000000002</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="1"/>
-        <v>102.95099999999999</v>
+        <v>300.762</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>91.889,102.951</v>
+        <v>269.79,300.762</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
@@ -693,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F6" s="5">
         <f>90+B6*72</f>
@@ -701,24 +703,24 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>110.053</v>
+        <v>320.64800000000002</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="1"/>
-        <v>47.048999999999999</v>
+        <v>144.238</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>110.053,47.049</v>
+        <v>320.648,144.238</v>
       </c>
       <c r="J6" s="4" t="str">
         <f>I2&amp;" "&amp;I3&amp;" "&amp;I4&amp;" "&amp;I5&amp;" "&amp;I6</f>
-        <v>62.5,12.5 14.947,47.049 33.111,102.951 91.889,102.951 110.053,47.049</v>
+        <v>187.5,47.5 54.352,144.238 105.21,300.762 269.79,300.762 320.648,144.238</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -730,28 +732,28 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F31" si="3">90+B7*72</f>
+        <f t="shared" ref="F7:F36" si="3">90+B7*72</f>
         <v>90</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>187.5</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>22.5</v>
+        <v>75.5</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>62.5,22.5</v>
+        <v>187.5,75.5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -763,7 +765,7 @@
         <v>0.8</v>
       </c>
       <c r="E8" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="3"/>
@@ -771,20 +773,20 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>24.457999999999998</v>
+        <v>80.981999999999999</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>50.139000000000003</v>
+        <v>152.88999999999999</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>24.458,50.139</v>
+        <v>80.982,152.89</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
@@ -796,7 +798,7 @@
         <v>0.8</v>
       </c>
       <c r="E9" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="3"/>
@@ -804,20 +806,20 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>38.988999999999997</v>
+        <v>121.66800000000001</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>94.861000000000004</v>
+        <v>278.11</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>38.989,94.861</v>
+        <v>121.668,278.11</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
@@ -829,7 +831,7 @@
         <v>0.8</v>
       </c>
       <c r="E10" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="3"/>
@@ -837,20 +839,20 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>86.010999999999996</v>
+        <v>253.33199999999999</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>94.861000000000004</v>
+        <v>278.11</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>86.011,94.861</v>
+        <v>253.332,278.11</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B11" s="5">
         <v>4</v>
@@ -862,7 +864,7 @@
         <v>0.8</v>
       </c>
       <c r="E11" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="3"/>
@@ -870,24 +872,24 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>100.542</v>
+        <v>294.01799999999997</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="1"/>
-        <v>50.139000000000003</v>
+        <v>152.88999999999999</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>100.542,50.139</v>
+        <v>294.018,152.89</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" ref="J11" si="4">I7&amp;" "&amp;I8&amp;" "&amp;I9&amp;" "&amp;I10&amp;" "&amp;I11</f>
-        <v>62.5,22.5 24.458,50.139 38.989,94.861 86.011,94.861 100.542,50.139</v>
+        <v>187.5,75.5 80.982,152.89 121.668,278.11 253.332,278.11 294.018,152.89</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B12" s="5">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>0.6</v>
       </c>
       <c r="E12" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="3"/>
@@ -907,20 +909,20 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>187.5</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="1"/>
-        <v>32.5</v>
+        <v>103.5</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>62.5,32.5</v>
+        <v>187.5,103.5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -932,7 +934,7 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="3"/>
@@ -940,20 +942,20 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>33.968000000000004</v>
+        <v>107.611</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="1"/>
-        <v>53.228999999999999</v>
+        <v>161.54300000000001</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>33.968,53.229</v>
+        <v>107.611,161.543</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -965,7 +967,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="3"/>
@@ -973,20 +975,20 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>44.866</v>
+        <v>138.126</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="1"/>
-        <v>86.771000000000001</v>
+        <v>255.45699999999999</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>44.866,86.771</v>
+        <v>138.126,255.457</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B15" s="5">
         <v>3</v>
@@ -998,7 +1000,7 @@
         <v>0.6</v>
       </c>
       <c r="E15" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="3"/>
@@ -1006,20 +1008,20 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>80.134</v>
+        <v>236.874</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>86.771000000000001</v>
+        <v>255.45699999999999</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>80.134,86.771</v>
+        <v>236.874,255.457</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B16" s="5">
         <v>4</v>
@@ -1031,7 +1033,7 @@
         <v>0.6</v>
       </c>
       <c r="E16" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="3"/>
@@ -1039,24 +1041,24 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>91.031999999999996</v>
+        <v>267.38900000000001</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>53.228999999999999</v>
+        <v>161.54300000000001</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>91.032,53.229</v>
+        <v>267.389,161.543</v>
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" ref="J16" si="5">I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15&amp;" "&amp;I16</f>
-        <v>62.5,32.5 33.968,53.229 44.866,86.771 80.134,86.771 91.032,53.229</v>
+        <v>187.5,103.5 107.611,161.543 138.126,255.457 236.874,255.457 267.389,161.543</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B17" s="5">
         <v>0</v>
@@ -1068,7 +1070,7 @@
         <v>0.4</v>
       </c>
       <c r="E17" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="3"/>
@@ -1076,20 +1078,20 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>187.5</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="1"/>
-        <v>42.5</v>
+        <v>131.5</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>62.5,42.5</v>
+        <v>187.5,131.5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B18" s="5">
         <v>1</v>
@@ -1101,7 +1103,7 @@
         <v>0.4</v>
       </c>
       <c r="E18" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="3"/>
@@ -1109,20 +1111,20 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>43.478999999999999</v>
+        <v>134.24100000000001</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="1"/>
-        <v>56.32</v>
+        <v>170.19499999999999</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>43.479,56.32</v>
+        <v>134.241,170.195</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
@@ -1134,7 +1136,7 @@
         <v>0.4</v>
       </c>
       <c r="E19" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="3"/>
@@ -1142,20 +1144,20 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>50.744</v>
+        <v>154.584</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="1"/>
-        <v>78.680000000000007</v>
+        <v>232.80500000000001</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>50.744,78.68</v>
+        <v>154.584,232.805</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -1167,7 +1169,7 @@
         <v>0.4</v>
       </c>
       <c r="E20" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="3"/>
@@ -1175,20 +1177,20 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>74.256</v>
+        <v>220.416</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="1"/>
-        <v>78.680000000000007</v>
+        <v>232.80500000000001</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>74.256,78.68</v>
+        <v>220.416,232.805</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B21" s="5">
         <v>4</v>
@@ -1200,7 +1202,7 @@
         <v>0.4</v>
       </c>
       <c r="E21" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="3"/>
@@ -1208,24 +1210,24 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>81.521000000000001</v>
+        <v>240.75899999999999</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="1"/>
-        <v>56.32</v>
+        <v>170.19499999999999</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>81.521,56.32</v>
+        <v>240.759,170.195</v>
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" ref="J21" si="6">I17&amp;" "&amp;I18&amp;" "&amp;I19&amp;" "&amp;I20&amp;" "&amp;I21</f>
-        <v>62.5,42.5 43.479,56.32 50.744,78.68 74.256,78.68 81.521,56.32</v>
+        <v>187.5,131.5 134.241,170.195 154.584,232.805 220.416,232.805 240.759,170.195</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
@@ -1237,7 +1239,7 @@
         <v>0.2</v>
       </c>
       <c r="E22" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="3"/>
@@ -1245,20 +1247,20 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>187.5</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="1"/>
-        <v>52.5</v>
+        <v>159.5</v>
       </c>
       <c r="I22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>62.5,52.5</v>
+        <v>187.5,159.5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
@@ -1270,7 +1272,7 @@
         <v>0.2</v>
       </c>
       <c r="E23" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="3"/>
@@ -1278,20 +1280,20 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>52.988999999999997</v>
+        <v>160.87</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="1"/>
-        <v>59.41</v>
+        <v>178.84800000000001</v>
       </c>
       <c r="I23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>52.989,59.41</v>
+        <v>160.87,178.848</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -1303,7 +1305,7 @@
         <v>0.2</v>
       </c>
       <c r="E24" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="3"/>
@@ -1311,20 +1313,20 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>56.622</v>
+        <v>171.042</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="1"/>
-        <v>70.59</v>
+        <v>210.15199999999999</v>
       </c>
       <c r="I24" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>56.622,70.59</v>
+        <v>171.042,210.152</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B25" s="5">
         <v>3</v>
@@ -1336,7 +1338,7 @@
         <v>0.2</v>
       </c>
       <c r="E25" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="3"/>
@@ -1344,20 +1346,20 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>68.378</v>
+        <v>203.958</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="1"/>
-        <v>70.59</v>
+        <v>210.15199999999999</v>
       </c>
       <c r="I25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>68.378,70.59</v>
+        <v>203.958,210.152</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="5">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B26" s="5">
         <v>4</v>
@@ -1369,7 +1371,7 @@
         <v>0.2</v>
       </c>
       <c r="E26" s="5">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="3"/>
@@ -1377,187 +1379,352 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>72.010999999999996</v>
+        <v>214.13</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="1"/>
-        <v>59.41</v>
+        <v>178.84800000000001</v>
       </c>
       <c r="I26" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>72.011,59.41</v>
+        <v>214.13,178.848</v>
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" ref="J26" si="7">I22&amp;" "&amp;I23&amp;" "&amp;I24&amp;" "&amp;I25&amp;" "&amp;I26</f>
-        <v>62.5,52.5 52.989,59.41 56.622,70.59 68.378,70.59 72.011,59.41</v>
+        <v>187.5,159.5 160.87,178.848 171.042,210.152 203.958,210.152 214.13,178.848</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
+        <v>375</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>140</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>187.5</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>187.5,19.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5">
+        <v>375</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>140</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>27.722999999999999</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="1"/>
+        <v>135.58500000000001</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>27.723,135.585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="5">
+        <v>375</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>140</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>88.751999999999995</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="1"/>
+        <v>323.41500000000002</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>88.752,323.415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5">
+        <v>375</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E30" s="5">
+        <v>140</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="3"/>
+        <v>306</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>286.24799999999999</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="1"/>
+        <v>323.41500000000002</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>286.248,323.415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5">
+        <v>375</v>
+      </c>
+      <c r="B31" s="5">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>140</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="3"/>
+        <v>378</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="0"/>
+        <v>347.27699999999999</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="1"/>
+        <v>135.58500000000001</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>347.277,135.585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="6">
         <v>125</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B32" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C32" s="6">
         <v>36.1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D32" s="6">
         <v>36.1</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E32" s="6">
         <v>50</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F32" s="6">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G32" s="6">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H32" s="6">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="I27" s="6" t="str">
+      <c r="I32" s="6" t="str">
         <f t="shared" si="2"/>
         <v>62.5,12.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="6">
+    <row r="33" spans="1:10">
+      <c r="A33" s="6">
         <v>125</v>
       </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B33" s="6">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
         <v>15.6</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D33" s="6">
         <v>6.6</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E33" s="6">
         <v>50</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F33" s="6">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G33" s="6">
         <f t="shared" si="0"/>
         <v>42.381</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H33" s="6">
         <f t="shared" si="1"/>
         <v>55.963000000000001</v>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="I33" s="6" t="str">
         <f t="shared" si="2"/>
         <v>42.381,55.963</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="6">
+    <row r="34" spans="1:10">
+      <c r="A34" s="6">
         <v>125</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B34" s="6">
         <v>2</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C34" s="6">
         <v>10.7</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D34" s="6">
         <v>7.5</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E34" s="6">
         <v>50</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F34" s="6">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G34" s="6">
         <f t="shared" si="0"/>
         <v>41.9</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H34" s="6">
         <f t="shared" si="1"/>
         <v>90.852999999999994</v>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="I34" s="6" t="str">
         <f t="shared" si="2"/>
         <v>41.9,90.853</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="6">
+    <row r="35" spans="1:10">
+      <c r="A35" s="6">
         <v>125</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B35" s="6">
         <v>3</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C35" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D35" s="6">
         <v>2</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E35" s="6">
         <v>50</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F35" s="6">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G35" s="6">
         <f t="shared" si="0"/>
         <v>89.218000000000004</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H35" s="6">
         <f t="shared" si="1"/>
         <v>99.272999999999996</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>89.218,99.273</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="6">
+    <row r="36" spans="1:10">
+      <c r="A36" s="6">
         <v>125</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B36" s="6">
         <v>4</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C36" s="6">
         <v>2.7</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D36" s="6">
         <v>0.7</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E36" s="6">
         <v>50</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F36" s="6">
         <f t="shared" si="3"/>
         <v>378</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G36" s="6">
         <f t="shared" si="0"/>
         <v>74.828999999999994</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H36" s="6">
         <f t="shared" si="1"/>
         <v>58.494</v>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>74.829,58.494</v>
       </c>
-      <c r="J31" s="4" t="str">
-        <f t="shared" ref="J31" si="8">I27&amp;" "&amp;I28&amp;" "&amp;I29&amp;" "&amp;I30&amp;" "&amp;I31</f>
+      <c r="J36" s="4" t="str">
+        <f t="shared" ref="J36" si="8">I32&amp;" "&amp;I33&amp;" "&amp;I34&amp;" "&amp;I35&amp;" "&amp;I36</f>
         <v>62.5,12.5 42.381,55.963 41.9,90.853 89.218,99.273 74.829,58.494</v>
       </c>
     </row>

--- a/calulator.xlsx
+++ b/calulator.xlsx
@@ -88,7 +88,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +110,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,6 +218,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -563,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F2" s="5">
         <f>90+B2*72</f>
@@ -575,11 +584,11 @@
       </c>
       <c r="H2" s="5">
         <f>ROUND(A2/2-SIN(RADIANS(F2))*(E2*D2/C2),3)</f>
-        <v>47.5</v>
+        <v>57.5</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>G2&amp;","&amp;H2</f>
-        <v>187.5,47.5</v>
+        <v>187.5,57.5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -596,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F3" s="5">
         <f>90+B3*72</f>
@@ -604,15 +613,15 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G36" si="0">ROUND(COS(RADIANS(F3))*(E3*D3/C3)+A3/2,3)</f>
-        <v>54.351999999999997</v>
+        <v>63.863</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H36" si="1">ROUND(A3/2-SIN(RADIANS(F3))*(E3*D3/C3),3)</f>
-        <v>144.238</v>
+        <v>147.328</v>
       </c>
       <c r="I3" s="5" t="str">
         <f t="shared" ref="I3:I36" si="2">G3&amp;","&amp;H3</f>
-        <v>54.352,144.238</v>
+        <v>63.863,147.328</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -629,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F4" s="5">
         <f>90+B4*72</f>
@@ -637,15 +646,15 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>105.21</v>
+        <v>111.08799999999999</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>300.762</v>
+        <v>292.67200000000003</v>
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>105.21,300.762</v>
+        <v>111.088,292.672</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -662,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F5" s="5">
         <f>90+B5*72</f>
@@ -670,15 +679,15 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>269.79000000000002</v>
+        <v>263.91199999999998</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="1"/>
-        <v>300.762</v>
+        <v>292.67200000000003</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>269.79,300.762</v>
+        <v>263.912,292.672</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -695,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F6" s="5">
         <f>90+B6*72</f>
@@ -703,19 +712,19 @@
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>320.64800000000002</v>
+        <v>311.137</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="1"/>
-        <v>144.238</v>
+        <v>147.328</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>320.648,144.238</v>
+        <v>311.137,147.328</v>
       </c>
       <c r="J6" s="4" t="str">
         <f>I2&amp;" "&amp;I3&amp;" "&amp;I4&amp;" "&amp;I5&amp;" "&amp;I6</f>
-        <v>187.5,47.5 54.352,144.238 105.21,300.762 269.79,300.762 320.648,144.238</v>
+        <v>187.5,57.5 63.863,147.328 111.088,292.672 263.912,292.672 311.137,147.328</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -732,7 +741,7 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F36" si="3">90+B7*72</f>
@@ -744,11 +753,11 @@
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>75.5</v>
+        <v>83.5</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>187.5,75.5</v>
+        <v>187.5,83.5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -765,7 +774,7 @@
         <v>0.8</v>
       </c>
       <c r="E8" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="3"/>
@@ -773,15 +782,15 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>80.981999999999999</v>
+        <v>88.59</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>152.88999999999999</v>
+        <v>155.36199999999999</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>80.982,152.89</v>
+        <v>88.59,155.362</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -798,7 +807,7 @@
         <v>0.8</v>
       </c>
       <c r="E9" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="3"/>
@@ -806,15 +815,15 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>121.66800000000001</v>
+        <v>126.37</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>278.11</v>
+        <v>271.63799999999998</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>121.668,278.11</v>
+        <v>126.37,271.638</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -831,7 +840,7 @@
         <v>0.8</v>
       </c>
       <c r="E10" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="3"/>
@@ -839,15 +848,15 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>253.33199999999999</v>
+        <v>248.63</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>278.11</v>
+        <v>271.63799999999998</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>253.332,278.11</v>
+        <v>248.63,271.638</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -864,7 +873,7 @@
         <v>0.8</v>
       </c>
       <c r="E11" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="3"/>
@@ -872,19 +881,19 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>294.01799999999997</v>
+        <v>286.41000000000003</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="1"/>
-        <v>152.88999999999999</v>
+        <v>155.36199999999999</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>294.018,152.89</v>
+        <v>286.41,155.362</v>
       </c>
       <c r="J11" s="4" t="str">
         <f t="shared" ref="J11" si="4">I7&amp;" "&amp;I8&amp;" "&amp;I9&amp;" "&amp;I10&amp;" "&amp;I11</f>
-        <v>187.5,75.5 80.982,152.89 121.668,278.11 253.332,278.11 294.018,152.89</v>
+        <v>187.5,83.5 88.59,155.362 126.37,271.638 248.63,271.638 286.41,155.362</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -901,7 +910,7 @@
         <v>0.6</v>
       </c>
       <c r="E12" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="3"/>
@@ -913,11 +922,11 @@
       </c>
       <c r="H12" s="5">
         <f t="shared" si="1"/>
-        <v>103.5</v>
+        <v>109.5</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>187.5,103.5</v>
+        <v>187.5,109.5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -934,7 +943,7 @@
         <v>0.6</v>
       </c>
       <c r="E13" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="3"/>
@@ -942,15 +951,15 @@
       </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>107.611</v>
+        <v>113.318</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="1"/>
-        <v>161.54300000000001</v>
+        <v>163.39699999999999</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>107.611,161.543</v>
+        <v>113.318,163.397</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -967,7 +976,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="3"/>
@@ -975,15 +984,15 @@
       </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>138.126</v>
+        <v>141.65299999999999</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="1"/>
-        <v>255.45699999999999</v>
+        <v>250.60300000000001</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>138.126,255.457</v>
+        <v>141.653,250.603</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1000,7 +1009,7 @@
         <v>0.6</v>
       </c>
       <c r="E15" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="3"/>
@@ -1008,15 +1017,15 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>236.874</v>
+        <v>233.34700000000001</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>255.45699999999999</v>
+        <v>250.60300000000001</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>236.874,255.457</v>
+        <v>233.347,250.603</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1033,7 +1042,7 @@
         <v>0.6</v>
       </c>
       <c r="E16" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="3"/>
@@ -1041,19 +1050,19 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>267.38900000000001</v>
+        <v>261.68200000000002</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>161.54300000000001</v>
+        <v>163.39699999999999</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>267.389,161.543</v>
+        <v>261.682,163.397</v>
       </c>
       <c r="J16" s="4" t="str">
         <f t="shared" ref="J16" si="5">I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15&amp;" "&amp;I16</f>
-        <v>187.5,103.5 107.611,161.543 138.126,255.457 236.874,255.457 267.389,161.543</v>
+        <v>187.5,109.5 113.318,163.397 141.653,250.603 233.347,250.603 261.682,163.397</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1070,7 +1079,7 @@
         <v>0.4</v>
       </c>
       <c r="E17" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="3"/>
@@ -1082,11 +1091,11 @@
       </c>
       <c r="H17" s="5">
         <f t="shared" si="1"/>
-        <v>131.5</v>
+        <v>135.5</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>187.5,131.5</v>
+        <v>187.5,135.5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1103,7 +1112,7 @@
         <v>0.4</v>
       </c>
       <c r="E18" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="3"/>
@@ -1111,15 +1120,15 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>134.24100000000001</v>
+        <v>138.04499999999999</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="1"/>
-        <v>170.19499999999999</v>
+        <v>171.43100000000001</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>134.241,170.195</v>
+        <v>138.045,171.431</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1136,7 +1145,7 @@
         <v>0.4</v>
       </c>
       <c r="E19" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="3"/>
@@ -1144,15 +1153,15 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>154.584</v>
+        <v>156.935</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="1"/>
-        <v>232.80500000000001</v>
+        <v>229.56899999999999</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>154.584,232.805</v>
+        <v>156.935,229.569</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1169,7 +1178,7 @@
         <v>0.4</v>
       </c>
       <c r="E20" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="3"/>
@@ -1177,15 +1186,15 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>220.416</v>
+        <v>218.065</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="1"/>
-        <v>232.80500000000001</v>
+        <v>229.56899999999999</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>220.416,232.805</v>
+        <v>218.065,229.569</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1202,7 +1211,7 @@
         <v>0.4</v>
       </c>
       <c r="E21" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="3"/>
@@ -1210,19 +1219,19 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>240.75899999999999</v>
+        <v>236.95500000000001</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="1"/>
-        <v>170.19499999999999</v>
+        <v>171.43100000000001</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>240.759,170.195</v>
+        <v>236.955,171.431</v>
       </c>
       <c r="J21" s="4" t="str">
         <f t="shared" ref="J21" si="6">I17&amp;" "&amp;I18&amp;" "&amp;I19&amp;" "&amp;I20&amp;" "&amp;I21</f>
-        <v>187.5,131.5 134.241,170.195 154.584,232.805 220.416,232.805 240.759,170.195</v>
+        <v>187.5,135.5 138.045,171.431 156.935,229.569 218.065,229.569 236.955,171.431</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1239,7 +1248,7 @@
         <v>0.2</v>
       </c>
       <c r="E22" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="3"/>
@@ -1251,11 +1260,11 @@
       </c>
       <c r="H22" s="5">
         <f t="shared" si="1"/>
-        <v>159.5</v>
+        <v>161.5</v>
       </c>
       <c r="I22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>187.5,159.5</v>
+        <v>187.5,161.5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1272,7 +1281,7 @@
         <v>0.2</v>
       </c>
       <c r="E23" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="3"/>
@@ -1280,15 +1289,15 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>160.87</v>
+        <v>162.773</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="1"/>
-        <v>178.84800000000001</v>
+        <v>179.46600000000001</v>
       </c>
       <c r="I23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>160.87,178.848</v>
+        <v>162.773,179.466</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1305,7 +1314,7 @@
         <v>0.2</v>
       </c>
       <c r="E24" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="3"/>
@@ -1313,15 +1322,15 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>171.042</v>
+        <v>172.21799999999999</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="1"/>
-        <v>210.15199999999999</v>
+        <v>208.53399999999999</v>
       </c>
       <c r="I24" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>171.042,210.152</v>
+        <v>172.218,208.534</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1338,7 +1347,7 @@
         <v>0.2</v>
       </c>
       <c r="E25" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="3"/>
@@ -1346,15 +1355,15 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>203.958</v>
+        <v>202.78200000000001</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="1"/>
-        <v>210.15199999999999</v>
+        <v>208.53399999999999</v>
       </c>
       <c r="I25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>203.958,210.152</v>
+        <v>202.782,208.534</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1371,7 +1380,7 @@
         <v>0.2</v>
       </c>
       <c r="E26" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="3"/>
@@ -1379,189 +1388,189 @@
       </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>214.13</v>
+        <v>212.227</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="1"/>
-        <v>178.84800000000001</v>
+        <v>179.46600000000001</v>
       </c>
       <c r="I26" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>214.13,178.848</v>
+        <v>212.227,179.466</v>
       </c>
       <c r="J26" s="4" t="str">
         <f t="shared" ref="J26" si="7">I22&amp;" "&amp;I23&amp;" "&amp;I24&amp;" "&amp;I25&amp;" "&amp;I26</f>
-        <v>187.5,159.5 160.87,178.848 171.042,210.152 203.958,210.152 214.13,178.848</v>
+        <v>187.5,161.5 162.773,179.466 172.218,208.534 202.782,208.534 212.227,179.466</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="5">
-        <v>375</v>
-      </c>
-      <c r="B27" s="5">
+      <c r="A27" s="8">
+        <v>375</v>
+      </c>
+      <c r="B27" s="8">
         <v>0</v>
       </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
         <v>1.2</v>
       </c>
-      <c r="E27" s="5">
-        <v>140</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="E27" s="8">
+        <v>130</v>
+      </c>
+      <c r="F27" s="8">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="8">
         <f t="shared" si="0"/>
         <v>187.5</v>
       </c>
-      <c r="H27" s="5">
-        <f t="shared" si="1"/>
-        <v>19.5</v>
-      </c>
-      <c r="I27" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>187.5,19.5</v>
+      <c r="H27" s="8">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="I27" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>187.5,31.5</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5">
-        <v>375</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="A28" s="8">
+        <v>375</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
         <v>1.2</v>
       </c>
-      <c r="E28" s="5">
-        <v>140</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="E28" s="8">
+        <v>130</v>
+      </c>
+      <c r="F28" s="8">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>27.722999999999999</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="1"/>
-        <v>135.58500000000001</v>
-      </c>
-      <c r="I28" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>27.723,135.585</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>39.134999999999998</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="1"/>
+        <v>139.29300000000001</v>
+      </c>
+      <c r="I28" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>39.135,139.293</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="5">
-        <v>375</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="A29" s="8">
+        <v>375</v>
+      </c>
+      <c r="B29" s="8">
         <v>2</v>
       </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
         <v>1.2</v>
       </c>
-      <c r="E29" s="5">
-        <v>140</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="E29" s="8">
+        <v>130</v>
+      </c>
+      <c r="F29" s="8">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>88.751999999999995</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="1"/>
-        <v>323.41500000000002</v>
-      </c>
-      <c r="I29" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>88.752,323.415</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>95.805999999999997</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="1"/>
+        <v>313.70699999999999</v>
+      </c>
+      <c r="I29" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>95.806,313.707</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="5">
-        <v>375</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="A30" s="8">
+        <v>375</v>
+      </c>
+      <c r="B30" s="8">
         <v>3</v>
       </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
         <v>1.2</v>
       </c>
-      <c r="E30" s="5">
-        <v>140</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="E30" s="8">
+        <v>130</v>
+      </c>
+      <c r="F30" s="8">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>286.24799999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="1"/>
-        <v>323.41500000000002</v>
-      </c>
-      <c r="I30" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>286.248,323.415</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>279.19400000000002</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="1"/>
+        <v>313.70699999999999</v>
+      </c>
+      <c r="I30" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>279.194,313.707</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="5">
-        <v>375</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="A31" s="8">
+        <v>375</v>
+      </c>
+      <c r="B31" s="8">
         <v>4</v>
       </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
         <v>1.2</v>
       </c>
-      <c r="E31" s="5">
-        <v>140</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="E31" s="8">
+        <v>130</v>
+      </c>
+      <c r="F31" s="8">
         <f t="shared" si="3"/>
         <v>378</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>347.27699999999999</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="1"/>
-        <v>135.58500000000001</v>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>347.277,135.585</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>335.86500000000001</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="1"/>
+        <v>139.29300000000001</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>335.865,139.293</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="6">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -1573,7 +1582,7 @@
         <v>36.1</v>
       </c>
       <c r="E32" s="6">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="3"/>
@@ -1581,20 +1590,20 @@
       </c>
       <c r="G32" s="6">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>187.5</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>57.5</v>
       </c>
       <c r="I32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>62.5,12.5</v>
+        <v>187.5,57.5</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="6">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -1606,7 +1615,7 @@
         <v>6.6</v>
       </c>
       <c r="E33" s="6">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="3"/>
@@ -1614,20 +1623,20 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="0"/>
-        <v>42.381</v>
+        <v>135.19200000000001</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="1"/>
-        <v>55.963000000000001</v>
+        <v>170.50399999999999</v>
       </c>
       <c r="I33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>42.381,55.963</v>
+        <v>135.192,170.504</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="6">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B34" s="6">
         <v>2</v>
@@ -1639,7 +1648,7 @@
         <v>7.5</v>
       </c>
       <c r="E34" s="6">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="3"/>
@@ -1647,20 +1656,20 @@
       </c>
       <c r="G34" s="6">
         <f t="shared" si="0"/>
-        <v>41.9</v>
+        <v>133.94</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>90.852999999999994</v>
+        <v>261.21899999999999</v>
       </c>
       <c r="I34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>41.9,90.853</v>
+        <v>133.94,261.219</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="6">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B35" s="6">
         <v>3</v>
@@ -1672,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="6">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="3"/>
@@ -1680,20 +1689,20 @@
       </c>
       <c r="G35" s="6">
         <f t="shared" si="0"/>
-        <v>89.218000000000004</v>
+        <v>256.96600000000001</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" si="1"/>
-        <v>99.272999999999996</v>
+        <v>283.11099999999999</v>
       </c>
       <c r="I35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>89.218,99.273</v>
+        <v>256.966,283.111</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="6">
-        <v>125</v>
+        <v>375</v>
       </c>
       <c r="B36" s="6">
         <v>4</v>
@@ -1705,7 +1714,7 @@
         <v>0.7</v>
       </c>
       <c r="E36" s="6">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="3"/>
@@ -1713,19 +1722,19 @@
       </c>
       <c r="G36" s="6">
         <f t="shared" si="0"/>
-        <v>74.828999999999994</v>
+        <v>219.554</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="1"/>
-        <v>58.494</v>
+        <v>177.08500000000001</v>
       </c>
       <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>74.829,58.494</v>
+        <v>219.554,177.085</v>
       </c>
       <c r="J36" s="4" t="str">
         <f t="shared" ref="J36" si="8">I32&amp;" "&amp;I33&amp;" "&amp;I34&amp;" "&amp;I35&amp;" "&amp;I36</f>
-        <v>62.5,12.5 42.381,55.963 41.9,90.853 89.218,99.273 74.829,58.494</v>
+        <v>187.5,57.5 135.192,170.504 133.94,261.219 256.966,283.111 219.554,177.085</v>
       </c>
     </row>
   </sheetData>

--- a/calulator.xlsx
+++ b/calulator.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="pentagon" sheetId="1" r:id="rId1"/>
     <sheet name="triangle" sheetId="2" r:id="rId2"/>
+    <sheet name="octagon" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>画布</t>
     <phoneticPr fontId="1"/>
@@ -516,11 +517,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -529,7 +528,7 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>375</v>
       </c>
@@ -591,7 +590,7 @@
         <v>187.5,57.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>375</v>
       </c>
@@ -624,7 +623,7 @@
         <v>63.863,147.328</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>375</v>
       </c>
@@ -657,7 +656,7 @@
         <v>111.088,292.672</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>375</v>
       </c>
@@ -690,7 +689,7 @@
         <v>263.912,292.672</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>375</v>
       </c>
@@ -722,12 +721,8 @@
         <f t="shared" si="2"/>
         <v>311.137,147.328</v>
       </c>
-      <c r="J6" s="4" t="str">
-        <f>I2&amp;" "&amp;I3&amp;" "&amp;I4&amp;" "&amp;I5&amp;" "&amp;I6</f>
-        <v>187.5,57.5 63.863,147.328 111.088,292.672 263.912,292.672 311.137,147.328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>375</v>
       </c>
@@ -760,7 +755,7 @@
         <v>187.5,83.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>375</v>
       </c>
@@ -793,7 +788,7 @@
         <v>88.59,155.362</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>375</v>
       </c>
@@ -826,7 +821,7 @@
         <v>126.37,271.638</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>375</v>
       </c>
@@ -859,7 +854,7 @@
         <v>248.63,271.638</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>375</v>
       </c>
@@ -891,12 +886,8 @@
         <f t="shared" si="2"/>
         <v>286.41,155.362</v>
       </c>
-      <c r="J11" s="4" t="str">
-        <f t="shared" ref="J11" si="4">I7&amp;" "&amp;I8&amp;" "&amp;I9&amp;" "&amp;I10&amp;" "&amp;I11</f>
-        <v>187.5,83.5 88.59,155.362 126.37,271.638 248.63,271.638 286.41,155.362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="5">
         <v>375</v>
       </c>
@@ -929,7 +920,7 @@
         <v>187.5,109.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <v>375</v>
       </c>
@@ -962,7 +953,7 @@
         <v>113.318,163.397</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>375</v>
       </c>
@@ -995,7 +986,7 @@
         <v>141.653,250.603</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>375</v>
       </c>
@@ -1028,7 +1019,7 @@
         <v>233.347,250.603</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>375</v>
       </c>
@@ -1060,12 +1051,8 @@
         <f t="shared" si="2"/>
         <v>261.682,163.397</v>
       </c>
-      <c r="J16" s="4" t="str">
-        <f t="shared" ref="J16" si="5">I12&amp;" "&amp;I13&amp;" "&amp;I14&amp;" "&amp;I15&amp;" "&amp;I16</f>
-        <v>187.5,109.5 113.318,163.397 141.653,250.603 233.347,250.603 261.682,163.397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>375</v>
       </c>
@@ -1098,7 +1085,7 @@
         <v>187.5,135.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>375</v>
       </c>
@@ -1131,7 +1118,7 @@
         <v>138.045,171.431</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>375</v>
       </c>
@@ -1164,7 +1151,7 @@
         <v>156.935,229.569</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <v>375</v>
       </c>
@@ -1197,7 +1184,7 @@
         <v>218.065,229.569</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:9">
       <c r="A21" s="5">
         <v>375</v>
       </c>
@@ -1229,12 +1216,8 @@
         <f t="shared" si="2"/>
         <v>236.955,171.431</v>
       </c>
-      <c r="J21" s="4" t="str">
-        <f t="shared" ref="J21" si="6">I17&amp;" "&amp;I18&amp;" "&amp;I19&amp;" "&amp;I20&amp;" "&amp;I21</f>
-        <v>187.5,135.5 138.045,171.431 156.935,229.569 218.065,229.569 236.955,171.431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <v>375</v>
       </c>
@@ -1267,7 +1250,7 @@
         <v>187.5,161.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:9">
       <c r="A23" s="5">
         <v>375</v>
       </c>
@@ -1300,7 +1283,7 @@
         <v>162.773,179.466</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:9">
       <c r="A24" s="5">
         <v>375</v>
       </c>
@@ -1333,7 +1316,7 @@
         <v>172.218,208.534</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:9">
       <c r="A25" s="5">
         <v>375</v>
       </c>
@@ -1366,7 +1349,7 @@
         <v>202.782,208.534</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:9">
       <c r="A26" s="5">
         <v>375</v>
       </c>
@@ -1398,12 +1381,8 @@
         <f t="shared" si="2"/>
         <v>212.227,179.466</v>
       </c>
-      <c r="J26" s="4" t="str">
-        <f t="shared" ref="J26" si="7">I22&amp;" "&amp;I23&amp;" "&amp;I24&amp;" "&amp;I25&amp;" "&amp;I26</f>
-        <v>187.5,161.5 162.773,179.466 172.218,208.534 202.782,208.534 212.227,179.466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="8">
         <v>375</v>
       </c>
@@ -1436,7 +1415,7 @@
         <v>187.5,31.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:9">
       <c r="A28" s="8">
         <v>375</v>
       </c>
@@ -1469,7 +1448,7 @@
         <v>39.135,139.293</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:9">
       <c r="A29" s="8">
         <v>375</v>
       </c>
@@ -1502,7 +1481,7 @@
         <v>95.806,313.707</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:9">
       <c r="A30" s="8">
         <v>375</v>
       </c>
@@ -1535,7 +1514,7 @@
         <v>279.194,313.707</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:9">
       <c r="A31" s="8">
         <v>375</v>
       </c>
@@ -1568,7 +1547,7 @@
         <v>335.865,139.293</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:9">
       <c r="A32" s="6">
         <v>375</v>
       </c>
@@ -1601,7 +1580,7 @@
         <v>187.5,57.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:9">
       <c r="A33" s="6">
         <v>375</v>
       </c>
@@ -1634,7 +1613,7 @@
         <v>135.192,170.504</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:9">
       <c r="A34" s="6">
         <v>375</v>
       </c>
@@ -1667,7 +1646,7 @@
         <v>133.94,261.219</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:9">
       <c r="A35" s="6">
         <v>375</v>
       </c>
@@ -1700,7 +1679,7 @@
         <v>256.966,283.111</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:9">
       <c r="A36" s="6">
         <v>375</v>
       </c>
@@ -1731,10 +1710,6 @@
       <c r="I36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>219.554,177.085</v>
-      </c>
-      <c r="J36" s="4" t="str">
-        <f t="shared" ref="J36" si="8">I32&amp;" "&amp;I33&amp;" "&amp;I34&amp;" "&amp;I35&amp;" "&amp;I36</f>
-        <v>187.5,57.5 135.192,170.504 133.94,261.219 256.966,283.111 219.554,177.085</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1721,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1788,7 +1763,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -1800,29 +1775,28 @@
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <f>ROUND(250*D2/C2,3)</f>
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="F2" s="5">
         <f>90+B2*120</f>
         <v>90</v>
       </c>
       <c r="G2" s="5">
-        <f>ROUND(COS(RADIANS(F2))*E2+A2/2,3)</f>
-        <v>256</v>
+        <f>ROUND(COS(RADIANS(F2))*(E2*D2/C2)+A2/2,3)</f>
+        <v>187.5</v>
       </c>
       <c r="H2" s="5">
-        <f>ROUND(A2/2-SIN(RADIANS(F2))*E2,3)</f>
-        <v>6</v>
+        <f>ROUND(A2/2-SIN(RADIANS(F2))*(E2*D2/C2),3)</f>
+        <v>57.5</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>G2&amp;","&amp;H2</f>
-        <v>256,6</v>
+        <v>187.5,57.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1834,29 +1808,28 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E10" si="0">ROUND(250*D3/C3,3)</f>
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F10" si="1">90+B3*120</f>
+        <f t="shared" ref="F3:F13" si="0">90+B3*120</f>
         <v>210</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G10" si="2">ROUND(COS(RADIANS(F3))*E3+A3/2,3)</f>
-        <v>39.494</v>
+        <f t="shared" ref="G3:G16" si="1">ROUND(COS(RADIANS(F3))*(E3*D3/C3)+A3/2,3)</f>
+        <v>74.917000000000002</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H10" si="3">ROUND(A3/2-SIN(RADIANS(F3))*E3,3)</f>
-        <v>381</v>
+        <f t="shared" ref="H3:H16" si="2">ROUND(A3/2-SIN(RADIANS(F3))*(E3*D3/C3),3)</f>
+        <v>252.5</v>
       </c>
       <c r="I3" s="5" t="str">
-        <f t="shared" ref="I3:I10" si="4">G3&amp;","&amp;H3</f>
-        <v>39.494,381</v>
+        <f t="shared" ref="I3:I13" si="3">G3&amp;","&amp;H3</f>
+        <v>74.917,252.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
@@ -1868,29 +1841,28 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="2"/>
-        <v>472.50599999999997</v>
+        <f t="shared" si="1"/>
+        <v>300.08300000000003</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="3"/>
-        <v>381</v>
+        <f t="shared" si="2"/>
+        <v>252.5</v>
       </c>
       <c r="I4" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>472.506,381</v>
+        <f t="shared" si="3"/>
+        <v>300.083,252.5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -1902,29 +1874,28 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>166.5</v>
+        <v>130</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="2"/>
-        <v>256</v>
+        <f t="shared" si="1"/>
+        <v>187.5</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="3"/>
-        <v>89.5</v>
+        <f t="shared" si="2"/>
+        <v>100.92</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>256,89.5</v>
+        <f t="shared" si="3"/>
+        <v>187.5,100.92</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -1936,29 +1907,28 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>166.5</v>
+        <v>130</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="2"/>
-        <v>111.807</v>
+        <f t="shared" si="1"/>
+        <v>112.52</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="3"/>
-        <v>339.25</v>
+        <f t="shared" si="2"/>
+        <v>230.79</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>111.807,339.25</v>
+        <f t="shared" si="3"/>
+        <v>112.52,230.79</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -1970,29 +1940,28 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>166.5</v>
+        <v>130</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="2"/>
-        <v>400.19299999999998</v>
+        <f t="shared" si="1"/>
+        <v>262.48</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="3"/>
-        <v>339.25</v>
+        <f t="shared" si="2"/>
+        <v>230.79</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>400.193,339.25</v>
+        <f t="shared" si="3"/>
+        <v>262.48,230.79</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -2004,29 +1973,28 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>83.25</v>
+        <v>130</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="2"/>
-        <v>256</v>
+        <f t="shared" si="1"/>
+        <v>187.5</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="3"/>
-        <v>172.75</v>
+        <f t="shared" si="2"/>
+        <v>144.21</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>256,172.75</v>
+        <f t="shared" si="3"/>
+        <v>187.5,144.21</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
@@ -2038,29 +2006,28 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>83.25</v>
+        <v>130</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="2"/>
-        <v>183.90299999999999</v>
+        <f t="shared" si="1"/>
+        <v>150.01</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="3"/>
-        <v>297.625</v>
+        <f t="shared" si="2"/>
+        <v>209.14500000000001</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>183.903,297.625</v>
+        <f t="shared" si="3"/>
+        <v>150.01,209.145</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5">
-        <v>512</v>
+        <v>375</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
@@ -2072,130 +2039,2122 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>83.25</v>
+        <v>130</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="2"/>
-        <v>328.09699999999998</v>
+        <f t="shared" si="1"/>
+        <v>224.99</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="3"/>
-        <v>297.625</v>
+        <f t="shared" si="2"/>
+        <v>209.14500000000001</v>
       </c>
       <c r="I10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>224.99,209.145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="8">
+        <v>375</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.333</v>
+      </c>
+      <c r="E11" s="8">
+        <v>130</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="1"/>
+        <v>187.5</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="2"/>
+        <v>14.21</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>187.5,14.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8">
+        <v>375</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.333</v>
+      </c>
+      <c r="E12" s="8">
+        <v>130</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="1"/>
+        <v>37.426000000000002</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="2"/>
+        <v>274.14499999999998</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>37.426,274.145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8">
+        <v>375</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.333</v>
+      </c>
+      <c r="E13" s="8">
+        <v>130</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>337.57400000000001</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="2"/>
+        <v>274.14499999999998</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>337.574,274.145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6">
+        <v>375</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44.2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>130</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F16" si="4">90+B14*120</f>
+        <v>90</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>187.5</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="2"/>
+        <v>101.611</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f t="shared" ref="I14:I16" si="5">G14&amp;","&amp;H14</f>
+        <v>187.5,101.611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6">
+        <v>375</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>47.4</v>
+      </c>
+      <c r="D15" s="6">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E15" s="6">
+        <v>130</v>
+      </c>
+      <c r="F15" s="6">
         <f t="shared" si="4"/>
-        <v>328.097,297.625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6">
-        <v>512</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="D11" s="6">
-        <v>44.2</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" ref="E11:E13" si="5">ROUND(250*D11/C11,3)</f>
-        <v>165.172</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" ref="F11:F13" si="6">90+B11*120</f>
-        <v>90</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" ref="G11:G13" si="7">ROUND(COS(RADIANS(F11))*E11+A11/2,3)</f>
-        <v>256</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" ref="H11:H13" si="8">ROUND(A11/2-SIN(RADIANS(F11))*E11,3)</f>
-        <v>90.828000000000003</v>
-      </c>
-      <c r="I11" s="6" t="str">
-        <f t="shared" ref="I11:I13" si="9">G11&amp;","&amp;H11</f>
-        <v>256,90.828</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6">
-        <v>512</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>47.4</v>
-      </c>
-      <c r="D12" s="6">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E12" s="6">
+        <v>210</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>100.09399999999999</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="2"/>
+        <v>237.964</v>
+      </c>
+      <c r="I15" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>194.09299999999999</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="6"/>
-        <v>210</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="7"/>
-        <v>87.911000000000001</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="8"/>
-        <v>353.04700000000003</v>
-      </c>
-      <c r="I12" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>87.911,353.047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6">
-        <v>512</v>
-      </c>
-      <c r="B13" s="6">
+        <v>100.094,237.964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6">
+        <v>375</v>
+      </c>
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C16" s="6">
         <v>92.8</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D16" s="6">
         <v>88</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E16" s="6">
+        <v>130</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>294.26</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="2"/>
+        <v>249.13800000000001</v>
+      </c>
+      <c r="I16" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>237.06899999999999</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="6"/>
-        <v>330</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="7"/>
-        <v>461.30799999999999</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="8"/>
-        <v>374.53500000000003</v>
-      </c>
-      <c r="I13" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>461.308,374.535</v>
+        <v>294.26,249.138</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="8" width="10" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5">
+        <v>375</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>130</v>
+      </c>
+      <c r="F2" s="5">
+        <f>90+B2*45</f>
+        <v>90</v>
+      </c>
+      <c r="G2" s="5">
+        <f>ROUND(COS(RADIANS(F2))*(E2*D2/C2)+A2/2,3)</f>
+        <v>187.5</v>
+      </c>
+      <c r="H2" s="5">
+        <f>ROUND(A2/2-SIN(RADIANS(F2))*(E2*D2/C2),3)</f>
+        <v>57.5</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>G2&amp;","&amp;H2</f>
+        <v>187.5,57.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>375</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>130</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F9" si="0">90+B3*45</f>
+        <v>135</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G54" si="1">ROUND(COS(RADIANS(F3))*(E3*D3/C3)+A3/2,3)</f>
+        <v>95.575999999999993</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H54" si="2">ROUND(A3/2-SIN(RADIANS(F3))*(E3*D3/C3),3)</f>
+        <v>95.575999999999993</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:I54" si="3">G3&amp;","&amp;H3</f>
+        <v>95.576,95.576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>375</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>130</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>57.5,187.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>375</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>130</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="1"/>
+        <v>95.575999999999993</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>279.42399999999998</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>95.576,279.424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <v>375</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>130</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="1"/>
+        <v>187.5</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>317.5</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>187.5,317.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>375</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>130</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>279.42399999999998</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>279.42399999999998</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>279.424,279.424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>375</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>130</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>317.5</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>317.5,187.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>375</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>130</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>279.42399999999998</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>95.575999999999993</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>279.424,95.576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
+        <v>375</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="5">
+        <v>130</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F41" si="4">90+B10*45</f>
+        <v>90</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10:G41" si="5">ROUND(COS(RADIANS(F10))*(E10*D10/C10)+A10/2,3)</f>
+        <v>187.5</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ref="H10:H41" si="6">ROUND(A10/2-SIN(RADIANS(F10))*(E10*D10/C10),3)</f>
+        <v>83.5</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" ref="I10:I41" si="7">G10&amp;","&amp;H10</f>
+        <v>187.5,83.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5">
+        <v>375</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="5">
+        <v>130</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="5"/>
+        <v>113.961</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="6"/>
+        <v>113.961</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>113.961,113.961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5">
+        <v>375</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>130</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="5"/>
+        <v>83.5</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="6"/>
+        <v>187.5</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>83.5,187.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5">
+        <v>375</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>130</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="5"/>
+        <v>113.961</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="6"/>
+        <v>261.03899999999999</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>113.961,261.039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5">
+        <v>375</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>130</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="5"/>
+        <v>187.5</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="6"/>
+        <v>291.5</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>187.5,291.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5">
+        <v>375</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="5">
+        <v>130</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="5"/>
+        <v>261.03899999999999</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="6"/>
+        <v>261.03899999999999</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>261.039,261.039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>375</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="5">
+        <v>130</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="5"/>
+        <v>291.5</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="6"/>
+        <v>187.5</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>291.5,187.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5">
+        <v>375</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>130</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="5"/>
+        <v>261.03899999999999</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="6"/>
+        <v>113.961</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>261.039,113.961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5">
+        <v>375</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E18" s="5">
+        <v>130</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="5"/>
+        <v>187.5</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="6"/>
+        <v>109.5</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>187.5,109.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5">
+        <v>375</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="5">
+        <v>130</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="5"/>
+        <v>132.346</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="6"/>
+        <v>132.346</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>132.346,132.346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5">
+        <v>375</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>130</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="5"/>
+        <v>109.5</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="6"/>
+        <v>187.5</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>109.5,187.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>375</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="5">
+        <v>130</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="5"/>
+        <v>132.346</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="6"/>
+        <v>242.654</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>132.346,242.654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5">
+        <v>375</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>130</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="5"/>
+        <v>187.5</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="6"/>
+        <v>265.5</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>187.5,265.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5">
+        <v>375</v>
+      </c>
+      <c r="B23" s="5">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>130</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="5"/>
+        <v>242.654</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="6"/>
+        <v>242.654</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>242.654,242.654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5">
+        <v>375</v>
+      </c>
+      <c r="B24" s="5">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>130</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="5"/>
+        <v>265.5</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="6"/>
+        <v>187.5</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>265.5,187.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5">
+        <v>375</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>130</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="5"/>
+        <v>242.654</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="6"/>
+        <v>132.346</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>242.654,132.346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5">
+        <v>375</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E26" s="5">
+        <v>130</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="5"/>
+        <v>187.5</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="6"/>
+        <v>135.5</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>187.5,135.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5">
+        <v>375</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E27" s="5">
+        <v>130</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="5"/>
+        <v>150.72999999999999</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="6"/>
+        <v>150.72999999999999</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>150.73,150.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5">
+        <v>375</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="5">
+        <v>130</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="5"/>
+        <v>135.5</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="6"/>
+        <v>187.5</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>135.5,187.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5">
+        <v>375</v>
+      </c>
+      <c r="B29" s="5">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="5">
+        <v>130</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="5"/>
+        <v>150.72999999999999</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="6"/>
+        <v>224.27</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>150.73,224.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5">
+        <v>375</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E30" s="5">
+        <v>130</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="5"/>
+        <v>187.5</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="6"/>
+        <v>239.5</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>187.5,239.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5">
+        <v>375</v>
+      </c>
+      <c r="B31" s="5">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E31" s="5">
+        <v>130</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="5"/>
+        <v>224.27</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="6"/>
+        <v>224.27</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>224.27,224.27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5">
+        <v>375</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E32" s="5">
+        <v>130</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="5"/>
+        <v>239.5</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="6"/>
+        <v>187.5</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>239.5,187.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5">
+        <v>375</v>
+      </c>
+      <c r="B33" s="5">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E33" s="5">
+        <v>130</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="5"/>
+        <v>224.27</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="6"/>
+        <v>150.72999999999999</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>224.27,150.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5">
+        <v>375</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>130</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="5"/>
+        <v>187.5</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="6"/>
+        <v>161.5</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>187.5,161.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="5">
+        <v>375</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E35" s="5">
+        <v>130</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="5"/>
+        <v>169.11500000000001</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="6"/>
+        <v>169.11500000000001</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>169.115,169.115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5">
+        <v>375</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="5">
+        <v>130</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="5"/>
+        <v>161.5</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="6"/>
+        <v>187.5</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>161.5,187.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5">
+        <v>375</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="5">
+        <v>130</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="5"/>
+        <v>169.11500000000001</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="6"/>
+        <v>205.88499999999999</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>169.115,205.885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5">
+        <v>375</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="5">
+        <v>130</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="5"/>
+        <v>187.5</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="6"/>
+        <v>213.5</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>187.5,213.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5">
+        <v>375</v>
+      </c>
+      <c r="B39" s="5">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>130</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="5"/>
+        <v>205.88499999999999</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="6"/>
+        <v>205.88499999999999</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>205.885,205.885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5">
+        <v>375</v>
+      </c>
+      <c r="B40" s="5">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E40" s="5">
+        <v>130</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="5"/>
+        <v>213.5</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="6"/>
+        <v>187.5</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>213.5,187.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="5">
+        <v>375</v>
+      </c>
+      <c r="B41" s="5">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E41" s="5">
+        <v>130</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="4"/>
+        <v>405</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="5"/>
+        <v>205.88499999999999</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="6"/>
+        <v>169.11500000000001</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>205.885,169.115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="8">
+        <v>375</v>
+      </c>
+      <c r="B42" s="8">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E42" s="8">
+        <v>130</v>
+      </c>
+      <c r="F42" s="8">
+        <f>90+B42*45</f>
+        <v>90</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="1"/>
+        <v>187.5</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="2"/>
+        <v>31.5</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>187.5,31.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="8">
+        <v>375</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E43" s="8">
+        <v>130</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" ref="F43:F49" si="8">90+B43*45</f>
+        <v>135</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="1"/>
+        <v>77.191000000000003</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="2"/>
+        <v>77.191000000000003</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>77.191,77.191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="8">
+        <v>375</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E44" s="8">
+        <v>130</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>31.5,187.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="8">
+        <v>375</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E45" s="8">
+        <v>130</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="8"/>
+        <v>225</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="1"/>
+        <v>77.191000000000003</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="2"/>
+        <v>297.80900000000003</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>77.191,297.809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="8">
+        <v>375</v>
+      </c>
+      <c r="B46" s="8">
+        <v>4</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E46" s="8">
+        <v>130</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="1"/>
+        <v>187.5</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="2"/>
+        <v>343.5</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>187.5,343.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="8">
+        <v>375</v>
+      </c>
+      <c r="B47" s="8">
+        <v>5</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E47" s="8">
+        <v>130</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="8"/>
+        <v>315</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" ref="G47:G49" si="9">ROUND(COS(RADIANS(F47))*(E47*D47/C47)+A47/2,3)</f>
+        <v>297.80900000000003</v>
+      </c>
+      <c r="H47" s="8">
+        <f t="shared" ref="H47:H49" si="10">ROUND(A47/2-SIN(RADIANS(F47))*(E47*D47/C47),3)</f>
+        <v>297.80900000000003</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f t="shared" ref="I47:I49" si="11">G47&amp;","&amp;H47</f>
+        <v>297.809,297.809</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="8">
+        <v>375</v>
+      </c>
+      <c r="B48" s="8">
+        <v>6</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E48" s="8">
+        <v>130</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="9"/>
+        <v>343.5</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="10"/>
+        <v>187.5</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>343.5,187.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="8">
+        <v>375</v>
+      </c>
+      <c r="B49" s="8">
+        <v>7</v>
+      </c>
+      <c r="C49" s="8">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E49" s="8">
+        <v>130</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="8"/>
+        <v>405</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="9"/>
+        <v>297.80900000000003</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="10"/>
+        <v>77.191000000000003</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f t="shared" si="11"/>
+        <v>297.809,77.191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="6">
+        <v>375</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="D50" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="E50" s="6">
+        <v>130</v>
+      </c>
+      <c r="F50" s="6">
+        <f>90+B50*45</f>
+        <v>90</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="1"/>
+        <v>187.5</v>
+      </c>
+      <c r="H50" s="6">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+      <c r="I50" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>187.5,57.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="6">
+        <v>375</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="D51" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E51" s="6">
+        <v>130</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" ref="F51:F57" si="12">90+B51*45</f>
+        <v>135</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="1"/>
+        <v>148.60900000000001</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" si="2"/>
+        <v>148.60900000000001</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>148.609,148.609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="6">
+        <v>375</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2</v>
+      </c>
+      <c r="C52" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="D52" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E52" s="6">
+        <v>130</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="1"/>
+        <v>96.379000000000005</v>
+      </c>
+      <c r="H52" s="6">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>96.379,187.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="6">
+        <v>375</v>
+      </c>
+      <c r="B53" s="6">
+        <v>3</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>130</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="1"/>
+        <v>103.93300000000001</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="2"/>
+        <v>271.06700000000001</v>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>103.933,271.067</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="6">
+        <v>375</v>
+      </c>
+      <c r="B54" s="6">
+        <v>4</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E54" s="6">
+        <v>130</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="12"/>
+        <v>270</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="1"/>
+        <v>187.5</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" si="2"/>
+        <v>221.20400000000001</v>
+      </c>
+      <c r="I54" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>187.5,221.204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="6">
+        <v>375</v>
+      </c>
+      <c r="B55" s="6">
+        <v>5</v>
+      </c>
+      <c r="C55" s="6">
+        <v>56.6</v>
+      </c>
+      <c r="D55" s="6">
+        <v>53.7</v>
+      </c>
+      <c r="E55" s="6">
+        <v>130</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="12"/>
+        <v>315</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" ref="G55:G57" si="13">ROUND(COS(RADIANS(F55))*(E55*D55/C55)+A55/2,3)</f>
+        <v>274.714</v>
+      </c>
+      <c r="H55" s="6">
+        <f t="shared" ref="H55:H57" si="14">ROUND(A55/2-SIN(RADIANS(F55))*(E55*D55/C55),3)</f>
+        <v>274.714</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f t="shared" ref="I55:I57" si="15">G55&amp;","&amp;H55</f>
+        <v>274.714,274.714</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6">
+        <v>375</v>
+      </c>
+      <c r="B56" s="6">
+        <v>6</v>
+      </c>
+      <c r="C56" s="6">
+        <v>39.9</v>
+      </c>
+      <c r="D56" s="6">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E56" s="6">
+        <v>130</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="12"/>
+        <v>360</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="13"/>
+        <v>302.18700000000001</v>
+      </c>
+      <c r="H56" s="6">
+        <f t="shared" si="14"/>
+        <v>187.5</v>
+      </c>
+      <c r="I56" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>302.187,187.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6">
+        <v>375</v>
+      </c>
+      <c r="B57" s="6">
+        <v>7</v>
+      </c>
+      <c r="C57" s="6">
+        <v>73.5</v>
+      </c>
+      <c r="D57" s="6">
+        <v>71</v>
+      </c>
+      <c r="E57" s="6">
+        <v>130</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="12"/>
+        <v>405</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="13"/>
+        <v>276.29700000000003</v>
+      </c>
+      <c r="H57" s="6">
+        <f t="shared" si="14"/>
+        <v>98.703000000000003</v>
+      </c>
+      <c r="I57" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>276.297,98.703</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>